--- a/backend/Monthly_Report.xlsx
+++ b/backend/Monthly_Report.xlsx
@@ -448,7 +448,10 @@
         <v xml:space="preserve"> GATTA FACTORY </v>
       </c>
       <c r="E2" t="str">
-        <v>N/A</v>
+        <v>ULTRASOUND</v>
+      </c>
+      <c r="F2" t="str">
+        <v>6767ec884153d14c2ef08780</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -477,7 +480,10 @@
         <v xml:space="preserve"> DIDOLI </v>
       </c>
       <c r="E3" t="str">
-        <v>N/A</v>
+        <v>CT SCAN</v>
+      </c>
+      <c r="F3" t="str">
+        <v>6767ee2b4153d14c2ef087b8</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -506,7 +512,10 @@
         <v xml:space="preserve"> SHAHWAZ PUR </v>
       </c>
       <c r="E4" t="str">
-        <v>N/A</v>
+        <v>CT SCAN</v>
+      </c>
+      <c r="F4" t="str">
+        <v>6767ee2b4153d14c2ef087b9</v>
       </c>
       <c r="G4">
         <v>400</v>
@@ -535,7 +544,10 @@
         <v xml:space="preserve"> GATTA FACTORY </v>
       </c>
       <c r="E5" t="str">
-        <v>N/A</v>
+        <v>ULTRASOUND</v>
+      </c>
+      <c r="F5" t="str">
+        <v>6767ec884153d14c2ef08782</v>
       </c>
       <c r="G5">
         <v>200</v>
@@ -564,7 +576,10 @@
         <v xml:space="preserve"> GATTA FACTORY </v>
       </c>
       <c r="E6" t="str">
-        <v>N/A</v>
+        <v>ULTRASOUND</v>
+      </c>
+      <c r="F6" t="str">
+        <v>6767ec884153d14c2ef08787</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -584,16 +599,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>Error</v>
+        <v>Unknown</v>
       </c>
       <c r="C7" t="str">
-        <v>Error</v>
+        <v>N/A</v>
       </c>
       <c r="D7" t="str">
-        <v>Error</v>
+        <v>N/A</v>
       </c>
       <c r="E7" t="str">
-        <v>N/A</v>
+        <v>ULTRASOUND</v>
+      </c>
+      <c r="F7" t="str">
+        <v>6767ec884153d14c2ef08783</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -613,16 +631,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>Error</v>
+        <v>Unknown</v>
       </c>
       <c r="C8" t="str">
-        <v>Error</v>
+        <v>N/A</v>
       </c>
       <c r="D8" t="str">
-        <v>Error</v>
+        <v>N/A</v>
       </c>
       <c r="E8" t="str">
-        <v>N/A</v>
+        <v>CT SCAN</v>
+      </c>
+      <c r="F8" t="str">
+        <v>6767ee2b4153d14c2ef087b7</v>
       </c>
       <c r="G8">
         <v>100</v>
@@ -651,7 +672,10 @@
         <v>sdcv</v>
       </c>
       <c r="E9" t="str">
-        <v>N/A</v>
+        <v>X RAY</v>
+      </c>
+      <c r="F9" t="str">
+        <v>6767ea404153d14c2ef08747</v>
       </c>
       <c r="G9">
         <v>100</v>
@@ -680,7 +704,10 @@
         <v>sdcv</v>
       </c>
       <c r="E10" t="str">
-        <v>N/A</v>
+        <v>ULTRASOUND</v>
+      </c>
+      <c r="F10" t="str">
+        <v>6767ec884153d14c2ef08783</v>
       </c>
       <c r="G10">
         <v>100</v>
@@ -709,7 +736,10 @@
         <v>sdcv</v>
       </c>
       <c r="E11" t="str">
-        <v>N/A</v>
+        <v>ULTRASOUND</v>
+      </c>
+      <c r="F11" t="str">
+        <v>6767ec884153d14c2ef08784</v>
       </c>
       <c r="G11">
         <v>200</v>
@@ -738,7 +768,10 @@
         <v xml:space="preserve"> GATTA FACTORY </v>
       </c>
       <c r="E12" t="str">
-        <v>N/A</v>
+        <v>ULTRASOUND</v>
+      </c>
+      <c r="F12" t="str">
+        <v>USG OBS TWINS</v>
       </c>
       <c r="G12">
         <v>100</v>
@@ -767,7 +800,10 @@
         <v xml:space="preserve"> VEERPUR </v>
       </c>
       <c r="E13" t="str">
-        <v>N/A</v>
+        <v>ULTRASOUND</v>
+      </c>
+      <c r="F13" t="str">
+        <v>USG Level II Scan</v>
       </c>
       <c r="G13">
         <v>100</v>
